--- a/xCodedUIFramework-mastersep23/xCodedUI.AppFramework/Data/TC317TC318TC319.xlsx
+++ b/xCodedUIFramework-mastersep23/xCodedUI.AppFramework/Data/TC317TC318TC319.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -33,23 +33,20 @@
     <t>45@</t>
   </si>
   <si>
-    <t>44@</t>
-  </si>
-  <si>
-    <t>mngthjk</t>
-  </si>
-  <si>
-    <t>zxcgtre</t>
-  </si>
-  <si>
-    <t>plkmnbv</t>
+    <t>mytest317</t>
+  </si>
+  <si>
+    <t>mytest318</t>
+  </si>
+  <si>
+    <t>mytest319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +86,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +172,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,20 +383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="38.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,20 +407,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-123</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>234.34</v>
@@ -422,9 +429,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -440,24 +447,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
